--- a/microservices/download templates/src/templatesStorage/networkTemplate.xlsx
+++ b/microservices/download templates/src/templatesStorage/networkTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DORA\Documents\GitHub\SaaS23-60\microservices\download templates\src\templatesStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E96496-FF6F-4987-B916-0A05062BB9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A91DC-2636-4E02-A5DE-570229683541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46EB44D5-4E4C-4FBF-9B9B-9B8682C03FE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Chart's Title</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>network</t>
+  </si>
+  <si>
+    <t>ChartName</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -158,12 +161,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -483,7 +480,7 @@
   <dimension ref="A1:BY462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,10 +500,12 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -516,7 +515,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -36637,7 +36636,7 @@
       <c r="BY462" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q1dOBQuFixE7BT6k2CXs+SHbk8Y88g7wJuFV0uzRmATUw17QYHSQXPd0XTS/D9cv4b3SW/x/n3EQj1LvOw3taA==" saltValue="u+GwU5UoStQsEBttn3JuJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hqZL9wTa+fmV4cSQJze/J5luBKTnCrY5ypsvWYKW18yB+Su5o0m3m1iiu7lN+PuhDl5a+b6D+2mWegBdkxn7kg==" saltValue="paqPc6DIC8CbxNwtJvL4eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="grJ6j9Pg3fR0ozyFbWId1iGPDl+m/wcgohlsBFVdFPlu3vLW2Q2diNvdtQZ4Y/z885xl+QQPzwXqYSHB89EeWw==" saltValue="Iwv+UuEJEwdeanhrSECMnw==" spinCount="100000" sqref="A1:XFD2" name="Range1"/>
   </protectedRanges>
@@ -36645,9 +36644,6 @@
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A4:XFD4"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" error="Needs to be in &quot;number&quot; - &quot;number&quot; format_x000a_" sqref="D3" xr:uid="{6C8AAD9E-B5B6-4F21-B492-A65D1B8513F2}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
